--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -105,7 +105,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -114,7 +114,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -436,7 +436,7 @@
     <x:col min="1" max="1" width="9.41" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.41" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.55" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.129999999999999" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.41" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
@@ -464,7 +464,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="1">
-        <x:v>40720.2727893519</x:v>
+        <x:v>36526</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -478,7 +478,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="1">
-        <x:v>40720.2727893519</x:v>
+        <x:v>36527</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -492,7 +492,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>40720.2727893519</x:v>
+        <x:v>36528</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -506,7 +506,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="1">
-        <x:v>40720.2727893519</x:v>
+        <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -520,7 +520,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D6" s="1">
-        <x:v>40720.2727893519</x:v>
+        <x:v>36530</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -430,13 +430,12 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="5" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="9.41" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.41" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.55" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.41" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.410625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -101,21 +101,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -125,7 +139,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
   <x:autoFilter ref="A1:D6"/>
   <x:tableColumns count="4">
@@ -439,86 +453,86 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="2" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="1">
+      <x:c r="D2" s="3">
         <x:v>36526</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="2" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D3" s="1">
+      <x:c r="D3" s="3">
         <x:v>36527</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="2" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D4" s="1">
+      <x:c r="D4" s="3">
         <x:v>36528</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="2" t="n">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D5" s="1">
+      <x:c r="D5" s="3">
         <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="2" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B6" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D6" s="1">
+      <x:c r="D6" s="3">
         <x:v>36530</x:v>
       </x:c>
     </x:row>
@@ -535,7 +549,7 @@
     <x:firstFooter/>
   </x:headerFooter>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
+    <x:tablePart r:id="rId1"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -101,13 +101,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -115,21 +109,13 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -453,86 +439,86 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="2" t="n">
+      <x:c r="A2" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="3">
+      <x:c r="D2" s="1">
         <x:v>36526</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="2" t="n">
+      <x:c r="A3" s="0" t="n">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D3" s="3">
+      <x:c r="D3" s="1">
         <x:v>36527</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="2" t="n">
+      <x:c r="A4" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D4" s="3">
+      <x:c r="D4" s="1">
         <x:v>36528</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="2" t="n">
+      <x:c r="A5" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D5" s="3">
+      <x:c r="D5" s="1">
         <x:v>36529</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="2" t="n">
+      <x:c r="A6" s="0" t="n">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D6" s="3">
+      <x:c r="D6" s="1">
         <x:v>36530</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -526,14 +526,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="1">
     <x:tablePart r:id="rId1"/>
   </x:tableParts>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -432,10 +432,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.410625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -432,10 +432,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.1090625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.10125" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -432,10 +432,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.10125" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.10125" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.10125" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -528,7 +528,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId1"/>
+    <x:tablePart r:id="rId5"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -65,7 +65,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -435,7 +435,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -439,10 +439,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.410625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.700625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="8.090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.1706250000000011" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -109,19 +109,19 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/AddingDataTableAsWorksheet.xlsx
@@ -441,7 +441,7 @@
   <x:cols>
     <x:col min="1" max="1" width="8.090625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.1706250000000011" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.170625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
